--- a/Data/Output/RO892123_2021/Yearly-Report-2021-RO892123.xlsx
+++ b/Data/Output/RO892123_2021/Yearly-Report-2021-RO892123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <x:si>
     <x:t>InvoiceNumber</x:t>
   </x:si>
@@ -37,133 +37,145 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>131780</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waste management services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59223</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11844.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71067.6</x:t>
+    <x:t>155647</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT Support</x:t>
+  </x:si>
+  <x:si>
+    <x:t>146393</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29278.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>175672</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>559596</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Concierge Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>290213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58042.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>348256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>625376</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32662.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>195976</x:t>
   </x:si>
   <x:si>
     <x:t>RON</x:t>
   </x:si>
   <x:si>
-    <x:t>2017-10-26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>241547</x:t>
+    <x:t>2017-11-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>611778</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8369</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1673.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10042.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-11-19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>355987</x:t>
   </x:si>
   <x:si>
     <x:t>Various paper supplies</x:t>
   </x:si>
   <x:si>
-    <x:t>98543</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19708.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>118252</x:t>
+    <x:t>231721</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46344.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>278065</x:t>
   </x:si>
   <x:si>
     <x:t>USD</x:t>
   </x:si>
   <x:si>
-    <x:t>2017-10-28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>963894</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beverages and Catering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>228745</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45749</x:t>
-  </x:si>
-  <x:si>
-    <x:t>274494</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>616461</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT Support</x:t>
-  </x:si>
-  <x:si>
-    <x:t>260047</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52009.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>312056</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>725574</x:t>
-  </x:si>
-  <x:si>
-    <x:t>76475</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15295</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91770</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-02-22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>368008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Concierge Services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>108140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21628</x:t>
-  </x:si>
-  <x:si>
-    <x:t>129768</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-04-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>913275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78738</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15747.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>94485.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-10</x:t>
+    <x:t>2017-02-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>848082</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40068.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>240412</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>963981</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Professional Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>249374</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49874.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>299249</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>466832</x:t>
+  </x:si>
+  <x:si>
+    <x:t>290860</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>349032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-27</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -514,7 +526,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G8"/>
+  <x:dimension ref="A1:G9"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -583,125 +595,148 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="E4" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
+      <x:c r="F4" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="s">
+      <x:c r="G4" s="0" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="E5" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="F5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="E6" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="F6" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="s">
+      <x:c r="G6" s="0" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="D7" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="E7" s="0" t="s">
         <x:v>41</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>43</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="D8" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s">
+      <x:c r="E8" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="E8" s="0" t="s">
+      <x:c r="F8" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="A9" s="0" t="s">
         <x:v>49</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>53</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
